--- a/textfsm_cmdb/ip_info.xlsx
+++ b/textfsm_cmdb/ip_info.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B14D79-1EE0-2646-BA97-AA9E33382A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1534E6D7-463F-524B-B110-FD7A9EC4AAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-560" yWindow="-19620" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="196">
   <si>
     <t>ip_address</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -620,6 +620,10 @@
   </si>
   <si>
     <t>192.168.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1069,7 +1073,7 @@
   <dimension ref="A1:D198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1087,7 +1091,9 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="15">
